--- a/l-17.xlsx
+++ b/l-17.xlsx
@@ -365,8 +365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B347"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A273" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B286" sqref="B286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -387,7 +387,7 @@
         <v>42736</v>
       </c>
       <c r="B2">
-        <v>4.51</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -395,7 +395,7 @@
         <v>42737</v>
       </c>
       <c r="B3">
-        <v>4.6500000000000004</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -403,7 +403,7 @@
         <v>42738</v>
       </c>
       <c r="B4">
-        <v>4.63</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -411,7 +411,7 @@
         <v>42739</v>
       </c>
       <c r="B5">
-        <v>4.84</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -419,7 +419,7 @@
         <v>42740</v>
       </c>
       <c r="B6">
-        <v>4.29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -427,7 +427,7 @@
         <v>42741</v>
       </c>
       <c r="B7">
-        <v>3.86</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -435,7 +435,7 @@
         <v>42742</v>
       </c>
       <c r="B8">
-        <v>3.96</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -443,7 +443,7 @@
         <v>42743</v>
       </c>
       <c r="B9">
-        <v>3.99</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -451,7 +451,7 @@
         <v>42744</v>
       </c>
       <c r="B10">
-        <v>4.3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -459,7 +459,7 @@
         <v>42745</v>
       </c>
       <c r="B11">
-        <v>4.59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -467,7 +467,7 @@
         <v>42746</v>
       </c>
       <c r="B12">
-        <v>3.85</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -475,7 +475,7 @@
         <v>42747</v>
       </c>
       <c r="B13">
-        <v>3.96</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -483,7 +483,7 @@
         <v>42748</v>
       </c>
       <c r="B14">
-        <v>3.89</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -491,7 +491,7 @@
         <v>42749</v>
       </c>
       <c r="B15">
-        <v>3.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -499,7 +499,7 @@
         <v>42750</v>
       </c>
       <c r="B16">
-        <v>3.93</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -507,7 +507,7 @@
         <v>42751</v>
       </c>
       <c r="B17">
-        <v>3.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -515,7 +515,7 @@
         <v>42752</v>
       </c>
       <c r="B18">
-        <v>3.94</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -523,7 +523,7 @@
         <v>42753</v>
       </c>
       <c r="B19">
-        <v>3.84</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -531,7 +531,7 @@
         <v>42754</v>
       </c>
       <c r="B20">
-        <v>3.86</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -539,7 +539,7 @@
         <v>42755</v>
       </c>
       <c r="B21">
-        <v>3.89</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -547,7 +547,7 @@
         <v>42756</v>
       </c>
       <c r="B22">
-        <v>3.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -555,7 +555,7 @@
         <v>42757</v>
       </c>
       <c r="B23">
-        <v>3.84</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -563,7 +563,7 @@
         <v>42758</v>
       </c>
       <c r="B24">
-        <v>3.84</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -571,7 +571,7 @@
         <v>42759</v>
       </c>
       <c r="B25">
-        <v>3.79</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -579,7 +579,7 @@
         <v>42760</v>
       </c>
       <c r="B26">
-        <v>3.71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -587,7 +587,7 @@
         <v>42761</v>
       </c>
       <c r="B27">
-        <v>3.83</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
@@ -595,7 +595,7 @@
         <v>42762</v>
       </c>
       <c r="B28">
-        <v>3.86</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
@@ -603,7 +603,7 @@
         <v>42763</v>
       </c>
       <c r="B29">
-        <v>3.85</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -611,7 +611,7 @@
         <v>42764</v>
       </c>
       <c r="B30">
-        <v>3.85</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
@@ -619,7 +619,7 @@
         <v>42765</v>
       </c>
       <c r="B31">
-        <v>4.0199999999999996</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
@@ -627,7 +627,7 @@
         <v>42766</v>
       </c>
       <c r="B32">
-        <v>4.08</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -635,7 +635,7 @@
         <v>42767</v>
       </c>
       <c r="B33">
-        <v>4.08</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
@@ -643,7 +643,7 @@
         <v>42768</v>
       </c>
       <c r="B34">
-        <v>4.09</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -651,7 +651,7 @@
         <v>42769</v>
       </c>
       <c r="B35">
-        <v>4.08</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
@@ -659,7 +659,7 @@
         <v>42770</v>
       </c>
       <c r="B36">
-        <v>4.0599999999999996</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -667,7 +667,7 @@
         <v>42771</v>
       </c>
       <c r="B37">
-        <v>4.04</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
@@ -675,7 +675,7 @@
         <v>42772</v>
       </c>
       <c r="B38">
-        <v>4.04</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -683,7 +683,7 @@
         <v>42773</v>
       </c>
       <c r="B39">
-        <v>4.04</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
@@ -691,7 +691,7 @@
         <v>42774</v>
       </c>
       <c r="B40">
-        <v>4.0199999999999996</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
@@ -699,7 +699,7 @@
         <v>42775</v>
       </c>
       <c r="B41">
-        <v>3.8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
@@ -707,7 +707,7 @@
         <v>42776</v>
       </c>
       <c r="B42">
-        <v>3.78</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
@@ -715,7 +715,7 @@
         <v>42777</v>
       </c>
       <c r="B43">
-        <v>3.79</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
@@ -723,7 +723,7 @@
         <v>42778</v>
       </c>
       <c r="B44">
-        <v>3.76</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
@@ -731,7 +731,7 @@
         <v>42779</v>
       </c>
       <c r="B45">
-        <v>3.72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
@@ -739,7 +739,7 @@
         <v>42780</v>
       </c>
       <c r="B46">
-        <v>3.77</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
@@ -747,7 +747,7 @@
         <v>42781</v>
       </c>
       <c r="B47">
-        <v>3.81</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
@@ -755,7 +755,7 @@
         <v>42782</v>
       </c>
       <c r="B48">
-        <v>3.79</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
@@ -763,7 +763,7 @@
         <v>42783</v>
       </c>
       <c r="B49">
-        <v>3.83</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
@@ -771,7 +771,7 @@
         <v>42784</v>
       </c>
       <c r="B50">
-        <v>3.79</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
@@ -779,7 +779,7 @@
         <v>42785</v>
       </c>
       <c r="B51">
-        <v>3.76</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
@@ -787,7 +787,7 @@
         <v>42786</v>
       </c>
       <c r="B52">
-        <v>3.77</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
@@ -795,7 +795,7 @@
         <v>42787</v>
       </c>
       <c r="B53">
-        <v>3.78</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
@@ -803,7 +803,7 @@
         <v>42788</v>
       </c>
       <c r="B54">
-        <v>3.81</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
@@ -811,7 +811,7 @@
         <v>42789</v>
       </c>
       <c r="B55">
-        <v>3.84</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
@@ -819,7 +819,7 @@
         <v>42790</v>
       </c>
       <c r="B56">
-        <v>3.85</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
@@ -827,7 +827,7 @@
         <v>42791</v>
       </c>
       <c r="B57">
-        <v>3.83</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
@@ -835,7 +835,7 @@
         <v>42792</v>
       </c>
       <c r="B58">
-        <v>3.83</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
@@ -843,7 +843,7 @@
         <v>42793</v>
       </c>
       <c r="B59">
-        <v>3.8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
@@ -851,7 +851,7 @@
         <v>42794</v>
       </c>
       <c r="B60">
-        <v>3.77</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
@@ -859,7 +859,7 @@
         <v>42795</v>
       </c>
       <c r="B61">
-        <v>3.8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
@@ -867,7 +867,7 @@
         <v>42796</v>
       </c>
       <c r="B62">
-        <v>3.92</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
@@ -875,7 +875,7 @@
         <v>42797</v>
       </c>
       <c r="B63">
-        <v>3.92</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
@@ -883,7 +883,7 @@
         <v>42798</v>
       </c>
       <c r="B64">
-        <v>3.88</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
@@ -891,7 +891,7 @@
         <v>42799</v>
       </c>
       <c r="B65">
-        <v>3.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
@@ -899,7 +899,7 @@
         <v>42800</v>
       </c>
       <c r="B66">
-        <v>3.92</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
@@ -907,7 +907,7 @@
         <v>42801</v>
       </c>
       <c r="B67">
-        <v>3.82</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
@@ -915,7 +915,7 @@
         <v>42802</v>
       </c>
       <c r="B68">
-        <v>3.78</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
@@ -923,7 +923,7 @@
         <v>42803</v>
       </c>
       <c r="B69">
-        <v>3.84</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
@@ -931,7 +931,7 @@
         <v>42804</v>
       </c>
       <c r="B70">
-        <v>3.75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
@@ -939,7 +939,7 @@
         <v>42805</v>
       </c>
       <c r="B71">
-        <v>3.8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
@@ -947,7 +947,7 @@
         <v>42806</v>
       </c>
       <c r="B72">
-        <v>3.84</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
@@ -955,7 +955,7 @@
         <v>42807</v>
       </c>
       <c r="B73">
-        <v>4.17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
@@ -963,7 +963,7 @@
         <v>42808</v>
       </c>
       <c r="B74">
-        <v>4.0599999999999996</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
@@ -971,7 +971,7 @@
         <v>42809</v>
       </c>
       <c r="B75">
-        <v>4.16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
@@ -979,7 +979,7 @@
         <v>42810</v>
       </c>
       <c r="B76">
-        <v>4.24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
@@ -987,7 +987,7 @@
         <v>42811</v>
       </c>
       <c r="B77">
-        <v>4.0599999999999996</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
@@ -995,7 +995,7 @@
         <v>42812</v>
       </c>
       <c r="B78">
-        <v>3.97</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
@@ -1003,7 +1003,7 @@
         <v>42813</v>
       </c>
       <c r="B79">
-        <v>3.96</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
@@ -1011,7 +1011,7 @@
         <v>42814</v>
       </c>
       <c r="B80">
-        <v>4.03</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
@@ -1019,7 +1019,7 @@
         <v>42815</v>
       </c>
       <c r="B81">
-        <v>4.01</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
@@ -1027,7 +1027,7 @@
         <v>42816</v>
       </c>
       <c r="B82">
-        <v>3.94</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
@@ -1035,7 +1035,7 @@
         <v>42817</v>
       </c>
       <c r="B83">
-        <v>3.98</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
@@ -1043,7 +1043,7 @@
         <v>42818</v>
       </c>
       <c r="B84">
-        <v>4.08</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
@@ -1051,7 +1051,7 @@
         <v>42819</v>
       </c>
       <c r="B85">
-        <v>4.07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
@@ -1059,7 +1059,7 @@
         <v>42820</v>
       </c>
       <c r="B86">
-        <v>4.0599999999999996</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
@@ -1067,7 +1067,7 @@
         <v>42821</v>
       </c>
       <c r="B87">
-        <v>4.08</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
@@ -1075,7 +1075,7 @@
         <v>42822</v>
       </c>
       <c r="B88">
-        <v>4.16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
@@ -1083,7 +1083,7 @@
         <v>42823</v>
       </c>
       <c r="B89">
-        <v>4.1900000000000004</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
@@ -1091,7 +1091,7 @@
         <v>42824</v>
       </c>
       <c r="B90">
-        <v>6.98</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
@@ -1099,7 +1099,7 @@
         <v>42825</v>
       </c>
       <c r="B91">
-        <v>6.67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
@@ -1107,7 +1107,7 @@
         <v>42826</v>
       </c>
       <c r="B92">
-        <v>6.88</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
@@ -1115,7 +1115,7 @@
         <v>42827</v>
       </c>
       <c r="B93">
-        <v>7.74</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
@@ -1123,7 +1123,7 @@
         <v>42828</v>
       </c>
       <c r="B94">
-        <v>8.07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
@@ -1131,7 +1131,7 @@
         <v>42829</v>
       </c>
       <c r="B95">
-        <v>8.2899999999999991</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
@@ -1139,7 +1139,7 @@
         <v>42830</v>
       </c>
       <c r="B96">
-        <v>11.09</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
@@ -1147,7 +1147,7 @@
         <v>42831</v>
       </c>
       <c r="B97">
-        <v>10.25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
@@ -1155,7 +1155,7 @@
         <v>42832</v>
       </c>
       <c r="B98">
-        <v>9.3699999999999992</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
@@ -1163,7 +1163,7 @@
         <v>42833</v>
       </c>
       <c r="B99">
-        <v>9.92</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
@@ -1171,7 +1171,7 @@
         <v>42834</v>
       </c>
       <c r="B100">
-        <v>8.7100000000000009</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
@@ -1179,7 +1179,7 @@
         <v>42835</v>
       </c>
       <c r="B101">
-        <v>8.92</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
@@ -1187,7 +1187,7 @@
         <v>42836</v>
       </c>
       <c r="B102">
-        <v>8.85</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
@@ -1195,7 +1195,7 @@
         <v>42837</v>
       </c>
       <c r="B103">
-        <v>10.79</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
@@ -1203,7 +1203,7 @@
         <v>42838</v>
       </c>
       <c r="B104">
-        <v>10.15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
@@ -1211,7 +1211,7 @@
         <v>42839</v>
       </c>
       <c r="B105">
-        <v>10.39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
@@ -1219,7 +1219,7 @@
         <v>42840</v>
       </c>
       <c r="B106">
-        <v>10.79</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
@@ -1227,7 +1227,7 @@
         <v>42841</v>
       </c>
       <c r="B107">
-        <v>10.71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
@@ -1235,7 +1235,7 @@
         <v>42842</v>
       </c>
       <c r="B108">
-        <v>10.42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
@@ -1243,7 +1243,7 @@
         <v>42843</v>
       </c>
       <c r="B109">
-        <v>10.32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
@@ -1251,7 +1251,7 @@
         <v>42844</v>
       </c>
       <c r="B110">
-        <v>9.66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
@@ -1259,7 +1259,7 @@
         <v>42845</v>
       </c>
       <c r="B111">
-        <v>10.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
@@ -1267,7 +1267,7 @@
         <v>42846</v>
       </c>
       <c r="B112">
-        <v>11.23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
@@ -1275,7 +1275,7 @@
         <v>42847</v>
       </c>
       <c r="B113">
-        <v>13.06</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
@@ -1283,7 +1283,7 @@
         <v>42848</v>
       </c>
       <c r="B114">
-        <v>13.94</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
@@ -1291,7 +1291,7 @@
         <v>42849</v>
       </c>
       <c r="B115">
-        <v>14.97</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
@@ -1299,7 +1299,7 @@
         <v>42850</v>
       </c>
       <c r="B116">
-        <v>15.21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
@@ -1307,7 +1307,7 @@
         <v>42851</v>
       </c>
       <c r="B117">
-        <v>14.85</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
@@ -1315,7 +1315,7 @@
         <v>42852</v>
       </c>
       <c r="B118">
-        <v>14.62</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
@@ -1323,7 +1323,7 @@
         <v>42853</v>
       </c>
       <c r="B119">
-        <v>14.34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
@@ -1331,7 +1331,7 @@
         <v>42854</v>
       </c>
       <c r="B120">
-        <v>15.74</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
@@ -1339,7 +1339,7 @@
         <v>42855</v>
       </c>
       <c r="B121">
-        <v>15.71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
@@ -1347,7 +1347,7 @@
         <v>42856</v>
       </c>
       <c r="B122">
-        <v>15.92</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
@@ -1355,7 +1355,7 @@
         <v>42857</v>
       </c>
       <c r="B123">
-        <v>15.89</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
@@ -1363,7 +1363,7 @@
         <v>42858</v>
       </c>
       <c r="B124">
-        <v>21.04</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
@@ -1371,7 +1371,7 @@
         <v>42859</v>
       </c>
       <c r="B125">
-        <v>23.39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
@@ -1379,7 +1379,7 @@
         <v>42860</v>
       </c>
       <c r="B126">
-        <v>26.27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
@@ -1387,7 +1387,7 @@
         <v>42861</v>
       </c>
       <c r="B127">
-        <v>28.16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
@@ -1395,7 +1395,7 @@
         <v>42862</v>
       </c>
       <c r="B128">
-        <v>30.29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
@@ -1403,7 +1403,7 @@
         <v>42863</v>
       </c>
       <c r="B129">
-        <v>28.96</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
@@ -1411,7 +1411,7 @@
         <v>42864</v>
       </c>
       <c r="B130">
-        <v>33.58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
@@ -1419,7 +1419,7 @@
         <v>42865</v>
       </c>
       <c r="B131">
-        <v>31.96</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
@@ -1427,7 +1427,7 @@
         <v>42866</v>
       </c>
       <c r="B132">
-        <v>30.72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
@@ -1435,7 +1435,7 @@
         <v>42867</v>
       </c>
       <c r="B133">
-        <v>27.45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
@@ -1443,7 +1443,7 @@
         <v>42868</v>
       </c>
       <c r="B134">
-        <v>28.91</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
@@ -1451,7 +1451,7 @@
         <v>42869</v>
       </c>
       <c r="B135">
-        <v>28.89</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
@@ -1459,7 +1459,7 @@
         <v>42870</v>
       </c>
       <c r="B136">
-        <v>25.37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
@@ -1467,7 +1467,7 @@
         <v>42871</v>
       </c>
       <c r="B137">
-        <v>23.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
@@ -1475,7 +1475,7 @@
         <v>42872</v>
       </c>
       <c r="B138">
-        <v>25.4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
@@ -1483,7 +1483,7 @@
         <v>42873</v>
       </c>
       <c r="B139">
-        <v>28.36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
@@ -1491,7 +1491,7 @@
         <v>42874</v>
       </c>
       <c r="B140">
-        <v>27.7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
@@ -1499,7 +1499,7 @@
         <v>42875</v>
       </c>
       <c r="B141">
-        <v>27.51</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
@@ -1507,7 +1507,7 @@
         <v>42876</v>
       </c>
       <c r="B142">
-        <v>26.3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
@@ -1515,7 +1515,7 @@
         <v>42877</v>
       </c>
       <c r="B143">
-        <v>25.38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
@@ -1523,7 +1523,7 @@
         <v>42878</v>
       </c>
       <c r="B144">
-        <v>32.11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
@@ -1531,7 +1531,7 @@
         <v>42879</v>
       </c>
       <c r="B145">
-        <v>34.450000000000003</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
@@ -1539,7 +1539,7 @@
         <v>42880</v>
       </c>
       <c r="B146">
-        <v>29.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
@@ -1547,7 +1547,7 @@
         <v>42881</v>
       </c>
       <c r="B147">
-        <v>23.75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
@@ -1555,7 +1555,7 @@
         <v>42882</v>
       </c>
       <c r="B148">
-        <v>23.74</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
@@ -1563,7 +1563,7 @@
         <v>42883</v>
       </c>
       <c r="B149">
-        <v>24.22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
@@ -1571,7 +1571,7 @@
         <v>42884</v>
       </c>
       <c r="B150">
-        <v>25.21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
@@ -1579,7 +1579,7 @@
         <v>42885</v>
       </c>
       <c r="B151">
-        <v>24.14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
@@ -1587,7 +1587,7 @@
         <v>42886</v>
       </c>
       <c r="B152">
-        <v>25.3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.15">
@@ -1595,7 +1595,7 @@
         <v>42887</v>
       </c>
       <c r="B153">
-        <v>28.8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.15">
@@ -1603,7 +1603,7 @@
         <v>42888</v>
       </c>
       <c r="B154">
-        <v>28.94</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.15">
@@ -1611,7 +1611,7 @@
         <v>42889</v>
       </c>
       <c r="B155">
-        <v>27.66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.15">
@@ -1619,7 +1619,7 @@
         <v>42890</v>
       </c>
       <c r="B156">
-        <v>27.94</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.15">
@@ -1627,7 +1627,7 @@
         <v>42891</v>
       </c>
       <c r="B157">
-        <v>30.84</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
@@ -1635,7 +1635,7 @@
         <v>42892</v>
       </c>
       <c r="B158">
-        <v>30.55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.15">
@@ -1643,7 +1643,7 @@
         <v>42893</v>
       </c>
       <c r="B159">
-        <v>28.39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.15">
@@ -1651,7 +1651,7 @@
         <v>42894</v>
       </c>
       <c r="B160">
-        <v>30.21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
@@ -1659,7 +1659,7 @@
         <v>42895</v>
       </c>
       <c r="B161">
-        <v>29.68</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.15">
@@ -1667,7 +1667,7 @@
         <v>42896</v>
       </c>
       <c r="B162">
-        <v>30.44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.15">
@@ -1675,7 +1675,7 @@
         <v>42897</v>
       </c>
       <c r="B163">
-        <v>33.22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.15">
@@ -1683,7 +1683,7 @@
         <v>42898</v>
       </c>
       <c r="B164">
-        <v>29.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.15">
@@ -1691,7 +1691,7 @@
         <v>42899</v>
       </c>
       <c r="B165">
-        <v>30.64</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.15">
@@ -1699,7 +1699,7 @@
         <v>42900</v>
       </c>
       <c r="B166">
-        <v>30.22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.15">
@@ -1707,7 +1707,7 @@
         <v>42901</v>
       </c>
       <c r="B167">
-        <v>30.22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.15">
@@ -1715,7 +1715,7 @@
         <v>42902</v>
       </c>
       <c r="B168">
-        <v>35.700000000000003</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.15">
@@ -1723,7 +1723,7 @@
         <v>42903</v>
       </c>
       <c r="B169">
-        <v>47.65</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.15">
@@ -1731,7 +1731,7 @@
         <v>42904</v>
       </c>
       <c r="B170">
-        <v>46.04</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.15">
@@ -1739,7 +1739,7 @@
         <v>42905</v>
       </c>
       <c r="B171">
-        <v>50.32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.15">
@@ -1747,7 +1747,7 @@
         <v>42906</v>
       </c>
       <c r="B172">
-        <v>47.22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.15">
@@ -1755,7 +1755,7 @@
         <v>42907</v>
       </c>
       <c r="B173">
-        <v>47.79</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.15">
@@ -1763,7 +1763,7 @@
         <v>42908</v>
       </c>
       <c r="B174">
-        <v>47.71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.15">
@@ -1771,7 +1771,7 @@
         <v>42909</v>
       </c>
       <c r="B175">
-        <v>47.34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.15">
@@ -1779,7 +1779,7 @@
         <v>42910</v>
       </c>
       <c r="B176">
-        <v>44.49</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.15">
@@ -1787,7 +1787,7 @@
         <v>42911</v>
       </c>
       <c r="B177">
-        <v>43.92</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.15">
@@ -1795,7 +1795,7 @@
         <v>42912</v>
       </c>
       <c r="B178">
-        <v>41.13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.15">
@@ -1803,7 +1803,7 @@
         <v>42913</v>
       </c>
       <c r="B179">
-        <v>40.54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.15">
@@ -1811,7 +1811,7 @@
         <v>42914</v>
       </c>
       <c r="B180">
-        <v>42.85</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.15">
@@ -1819,7 +1819,7 @@
         <v>42915</v>
       </c>
       <c r="B181">
-        <v>41.07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.15">
@@ -1827,7 +1827,7 @@
         <v>42916</v>
       </c>
       <c r="B182">
-        <v>40.35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.15">
@@ -1835,7 +1835,7 @@
         <v>42917</v>
       </c>
       <c r="B183">
-        <v>38.99</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.15">
@@ -1843,7 +1843,7 @@
         <v>42918</v>
       </c>
       <c r="B184">
-        <v>41.57</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.15">
@@ -1851,7 +1851,7 @@
         <v>42919</v>
       </c>
       <c r="B185">
-        <v>46.43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.15">
@@ -1859,7 +1859,7 @@
         <v>42920</v>
       </c>
       <c r="B186">
-        <v>55.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.15">
@@ -1867,7 +1867,7 @@
         <v>42921</v>
       </c>
       <c r="B187">
-        <v>53.19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.15">
@@ -1875,7 +1875,7 @@
         <v>42922</v>
       </c>
       <c r="B188">
-        <v>51.13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.15">
@@ -1883,7 +1883,7 @@
         <v>42923</v>
       </c>
       <c r="B189">
-        <v>46.58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.15">
@@ -1891,7 +1891,7 @@
         <v>42924</v>
       </c>
       <c r="B190">
-        <v>52.14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.15">
@@ -1899,7 +1899,7 @@
         <v>42925</v>
       </c>
       <c r="B191">
-        <v>49.58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.15">
@@ -1907,7 +1907,7 @@
         <v>42926</v>
       </c>
       <c r="B192">
-        <v>46.58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.15">
@@ -1915,7 +1915,7 @@
         <v>42927</v>
       </c>
       <c r="B193">
-        <v>45.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.15">
@@ -1923,7 +1923,7 @@
         <v>42928</v>
       </c>
       <c r="B194">
-        <v>48.75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.15">
@@ -1931,7 +1931,7 @@
         <v>42929</v>
       </c>
       <c r="B195">
-        <v>46.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.15">
@@ -1939,7 +1939,7 @@
         <v>42930</v>
       </c>
       <c r="B196">
-        <v>42.8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.15">
@@ -1947,7 +1947,7 @@
         <v>42931</v>
       </c>
       <c r="B197">
-        <v>38.92</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.15">
@@ -1955,7 +1955,7 @@
         <v>42932</v>
       </c>
       <c r="B198">
-        <v>40.909999999999997</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.15">
@@ -1963,7 +1963,7 @@
         <v>42933</v>
       </c>
       <c r="B199">
-        <v>42.67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.15">
@@ -1971,7 +1971,7 @@
         <v>42934</v>
       </c>
       <c r="B200">
-        <v>44.3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.15">
@@ -1979,7 +1979,7 @@
         <v>42935</v>
       </c>
       <c r="B201">
-        <v>40.86</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.15">
@@ -1987,7 +1987,7 @@
         <v>42936</v>
       </c>
       <c r="B202">
-        <v>45.02</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.15">
@@ -1995,7 +1995,7 @@
         <v>42937</v>
       </c>
       <c r="B203">
-        <v>45.76</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.15">
@@ -2003,7 +2003,7 @@
         <v>42938</v>
       </c>
       <c r="B204">
-        <v>46.56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.15">
@@ -2011,7 +2011,7 @@
         <v>42939</v>
       </c>
       <c r="B205">
-        <v>44.06</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.15">
@@ -2019,7 +2019,7 @@
         <v>42940</v>
       </c>
       <c r="B206">
-        <v>44.41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.15">
@@ -2027,7 +2027,7 @@
         <v>42941</v>
       </c>
       <c r="B207">
-        <v>42.24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.15">
@@ -2035,7 +2035,7 @@
         <v>42942</v>
       </c>
       <c r="B208">
-        <v>42.23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.15">
@@ -2043,7 +2043,7 @@
         <v>42943</v>
       </c>
       <c r="B209">
-        <v>42.14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.15">
@@ -2051,7 +2051,7 @@
         <v>42944</v>
       </c>
       <c r="B210">
-        <v>40.61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.15">
@@ -2059,7 +2059,7 @@
         <v>42945</v>
       </c>
       <c r="B211">
-        <v>41.12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.15">
@@ -2067,7 +2067,7 @@
         <v>42946</v>
       </c>
       <c r="B212">
-        <v>40.42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.15">
@@ -2075,7 +2075,7 @@
         <v>42947</v>
       </c>
       <c r="B213">
-        <v>43.02</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.15">
@@ -2083,7 +2083,7 @@
         <v>42948</v>
       </c>
       <c r="B214">
-        <v>43.04</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.15">
@@ -2091,7 +2091,7 @@
         <v>42949</v>
       </c>
       <c r="B215">
-        <v>42.13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.15">
@@ -2099,7 +2099,7 @@
         <v>42950</v>
       </c>
       <c r="B216">
-        <v>42.86</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.15">
@@ -2107,7 +2107,7 @@
         <v>42951</v>
       </c>
       <c r="B217">
-        <v>43.45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.15">
@@ -2115,7 +2115,7 @@
         <v>42952</v>
       </c>
       <c r="B218">
-        <v>46.86</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.15">
@@ -2123,7 +2123,7 @@
         <v>42953</v>
       </c>
       <c r="B219">
-        <v>45.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.15">
@@ -2131,7 +2131,7 @@
         <v>42954</v>
       </c>
       <c r="B220">
-        <v>45.8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.15">
@@ -2139,7 +2139,7 @@
         <v>42955</v>
       </c>
       <c r="B221">
-        <v>48.63</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.15">
@@ -2147,7 +2147,7 @@
         <v>42956</v>
       </c>
       <c r="B222">
-        <v>48.01</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.15">
@@ -2155,7 +2155,7 @@
         <v>42957</v>
       </c>
       <c r="B223">
-        <v>46.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.15">
@@ -2163,7 +2163,7 @@
         <v>42958</v>
       </c>
       <c r="B224">
-        <v>47.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.15">
@@ -2171,7 +2171,7 @@
         <v>42959</v>
       </c>
       <c r="B225">
-        <v>46.43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.15">
@@ -2179,7 +2179,7 @@
         <v>42960</v>
       </c>
       <c r="B226">
-        <v>45.81</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.15">
@@ -2187,7 +2187,7 @@
         <v>42961</v>
       </c>
       <c r="B227">
-        <v>45.8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.15">
@@ -2195,7 +2195,7 @@
         <v>42962</v>
       </c>
       <c r="B228">
-        <v>43.31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.15">
@@ -2203,7 +2203,7 @@
         <v>42963</v>
       </c>
       <c r="B229">
-        <v>44.15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.15">
@@ -2211,7 +2211,7 @@
         <v>42964</v>
       </c>
       <c r="B230">
-        <v>43.91</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.15">
@@ -2219,7 +2219,7 @@
         <v>42965</v>
       </c>
       <c r="B231">
-        <v>47.28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.15">
@@ -2227,7 +2227,7 @@
         <v>42966</v>
       </c>
       <c r="B232">
-        <v>45.48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.15">
@@ -2235,7 +2235,7 @@
         <v>42967</v>
       </c>
       <c r="B233">
-        <v>46.23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.15">
@@ -2243,7 +2243,7 @@
         <v>42968</v>
       </c>
       <c r="B234">
-        <v>47.94</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.15">
@@ -2251,7 +2251,7 @@
         <v>42969</v>
       </c>
       <c r="B235">
-        <v>46.73</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.15">
@@ -2259,7 +2259,7 @@
         <v>42970</v>
       </c>
       <c r="B236">
-        <v>53.25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.15">
@@ -2267,7 +2267,7 @@
         <v>42971</v>
       </c>
       <c r="B237">
-        <v>50.19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.15">
@@ -2275,7 +2275,7 @@
         <v>42972</v>
       </c>
       <c r="B238">
-        <v>51.18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.15">
@@ -2283,7 +2283,7 @@
         <v>42973</v>
       </c>
       <c r="B239">
-        <v>51.75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.15">
@@ -2291,7 +2291,7 @@
         <v>42974</v>
       </c>
       <c r="B240">
-        <v>61.16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.15">
@@ -2299,7 +2299,7 @@
         <v>42975</v>
       </c>
       <c r="B241">
-        <v>62.36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.15">
@@ -2307,7 +2307,7 @@
         <v>42976</v>
       </c>
       <c r="B242">
-        <v>63.17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.15">
@@ -2315,7 +2315,7 @@
         <v>42977</v>
       </c>
       <c r="B243">
-        <v>64.17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.15">
@@ -2323,7 +2323,7 @@
         <v>42978</v>
       </c>
       <c r="B244">
-        <v>71.06</v>
+        <v>10</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.15">
@@ -2331,7 +2331,7 @@
         <v>42979</v>
       </c>
       <c r="B245">
-        <v>86.04</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.15">
@@ -2339,7 +2339,7 @@
         <v>42980</v>
       </c>
       <c r="B246">
-        <v>79.02</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.15">
@@ -2347,7 +2347,7 @@
         <v>42981</v>
       </c>
       <c r="B247">
-        <v>76.84</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.15">
@@ -2355,7 +2355,7 @@
         <v>42982</v>
       </c>
       <c r="B248">
-        <v>65.209999999999994</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.15">
@@ -2363,7 +2363,7 @@
         <v>42983</v>
       </c>
       <c r="B249">
-        <v>71.290000000000006</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.15">
@@ -2371,7 +2371,7 @@
         <v>42984</v>
       </c>
       <c r="B250">
-        <v>80.11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.15">
@@ -2379,7 +2379,7 @@
         <v>42985</v>
       </c>
       <c r="B251">
-        <v>78.48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.15">
@@ -2387,7 +2387,7 @@
         <v>42986</v>
       </c>
       <c r="B252">
-        <v>67.790000000000006</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.15">
@@ -2395,7 +2395,7 @@
         <v>42987</v>
       </c>
       <c r="B253">
-        <v>66.010000000000005</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.15">
@@ -2403,7 +2403,7 @@
         <v>42988</v>
       </c>
       <c r="B254">
-        <v>61.61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.15">
@@ -2411,7 +2411,7 @@
         <v>42989</v>
       </c>
       <c r="B255">
-        <v>66.040000000000006</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.15">
@@ -2419,7 +2419,7 @@
         <v>42990</v>
       </c>
       <c r="B256">
-        <v>64.23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.15">
@@ -2427,7 +2427,7 @@
         <v>42991</v>
       </c>
       <c r="B257">
-        <v>61.73</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.15">
@@ -2435,7 +2435,7 @@
         <v>42992</v>
       </c>
       <c r="B258">
-        <v>41.58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.15">
@@ -2443,7 +2443,7 @@
         <v>42993</v>
       </c>
       <c r="B259">
-        <v>48.21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.15">
@@ -2451,7 +2451,7 @@
         <v>42994</v>
       </c>
       <c r="B260">
-        <v>48.26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.15">
@@ -2459,7 +2459,7 @@
         <v>42995</v>
       </c>
       <c r="B261">
-        <v>48.49</v>
+        <v>10</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.15">
@@ -2467,7 +2467,7 @@
         <v>42996</v>
       </c>
       <c r="B262">
-        <v>55.53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.15">
@@ -2475,7 +2475,7 @@
         <v>42997</v>
       </c>
       <c r="B263">
-        <v>52.84</v>
+        <v>10</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.15">
@@ -2483,7 +2483,7 @@
         <v>42998</v>
       </c>
       <c r="B264">
-        <v>51.73</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.15">
@@ -2491,7 +2491,7 @@
         <v>42999</v>
       </c>
       <c r="B265">
-        <v>46.61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.15">
@@ -2499,7 +2499,7 @@
         <v>43000</v>
       </c>
       <c r="B266">
-        <v>48.09</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.15">
@@ -2507,7 +2507,7 @@
         <v>43001</v>
       </c>
       <c r="B267">
-        <v>49.27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.15">
@@ -2515,7 +2515,7 @@
         <v>43002</v>
       </c>
       <c r="B268">
-        <v>47.62</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.15">
@@ -2523,7 +2523,7 @@
         <v>43003</v>
       </c>
       <c r="B269">
-        <v>51.58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.15">
@@ -2531,7 +2531,7 @@
         <v>43004</v>
       </c>
       <c r="B270">
-        <v>51.55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.15">
@@ -2539,7 +2539,7 @@
         <v>43005</v>
       </c>
       <c r="B271">
-        <v>56.28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.15">
@@ -2547,7 +2547,7 @@
         <v>43006</v>
       </c>
       <c r="B272">
-        <v>54.09</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.15">
@@ -2555,7 +2555,7 @@
         <v>43007</v>
       </c>
       <c r="B273">
-        <v>52.62</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.15">
@@ -2563,7 +2563,7 @@
         <v>43008</v>
       </c>
       <c r="B274">
-        <v>55.14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.15">
@@ -2571,7 +2571,7 @@
         <v>43009</v>
       </c>
       <c r="B275">
-        <v>54.54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.15">
@@ -2579,7 +2579,7 @@
         <v>43010</v>
       </c>
       <c r="B276">
-        <v>53.38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.15">
@@ -2587,7 +2587,7 @@
         <v>43011</v>
       </c>
       <c r="B277">
-        <v>52.35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.15">
@@ -2595,7 +2595,7 @@
         <v>43012</v>
       </c>
       <c r="B278">
-        <v>51.4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.15">
@@ -2603,7 +2603,7 @@
         <v>43013</v>
       </c>
       <c r="B279">
-        <v>51.67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.15">
@@ -2611,7 +2611,7 @@
         <v>43014</v>
       </c>
       <c r="B280">
-        <v>52.12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.15">
@@ -2619,7 +2619,7 @@
         <v>43015</v>
       </c>
       <c r="B281">
-        <v>52.58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.15">
@@ -2627,7 +2627,7 @@
         <v>43016</v>
       </c>
       <c r="B282">
-        <v>53.14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.15">
@@ -2635,7 +2635,7 @@
         <v>43017</v>
       </c>
       <c r="B283">
-        <v>50.16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.15">
@@ -2643,7 +2643,7 @@
         <v>43018</v>
       </c>
       <c r="B284">
-        <v>50.72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.15">
@@ -2651,7 +2651,7 @@
         <v>43019</v>
       </c>
       <c r="B285">
-        <v>50.89</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.15">
@@ -2659,7 +2659,7 @@
         <v>43020</v>
       </c>
       <c r="B286">
-        <v>60.11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.15">
@@ -2667,7 +2667,7 @@
         <v>43021</v>
       </c>
       <c r="B287">
-        <v>59.43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.15">
@@ -2675,7 +2675,7 @@
         <v>43022</v>
       </c>
       <c r="B288">
-        <v>63.95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.15">
@@ -2683,7 +2683,7 @@
         <v>43023</v>
       </c>
       <c r="B289">
-        <v>65.47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.15">
@@ -2691,7 +2691,7 @@
         <v>43024</v>
       </c>
       <c r="B290">
-        <v>64.62</v>
+        <v>20</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.15">
@@ -2699,7 +2699,7 @@
         <v>43025</v>
       </c>
       <c r="B291">
-        <v>59.48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.15">
@@ -2707,7 +2707,7 @@
         <v>43026</v>
       </c>
       <c r="B292">
-        <v>60.73</v>
+        <v>20</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.15">
@@ -2715,7 +2715,7 @@
         <v>43027</v>
       </c>
       <c r="B293">
-        <v>59.74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.15">
@@ -2723,7 +2723,7 @@
         <v>43028</v>
       </c>
       <c r="B294">
-        <v>60.33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.15">
@@ -2731,7 +2731,7 @@
         <v>43029</v>
       </c>
       <c r="B295">
-        <v>58.2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.15">
@@ -2739,7 +2739,7 @@
         <v>43030</v>
       </c>
       <c r="B296">
-        <v>56.81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.15">
@@ -2747,7 +2747,7 @@
         <v>43031</v>
       </c>
       <c r="B297">
-        <v>54.92</v>
+        <v>20</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.15">
@@ -2755,7 +2755,7 @@
         <v>43032</v>
       </c>
       <c r="B298">
-        <v>55.96</v>
+        <v>20</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.15">
@@ -2763,7 +2763,7 @@
         <v>43033</v>
       </c>
       <c r="B299">
-        <v>56.49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.15">
@@ -2771,7 +2771,7 @@
         <v>43034</v>
       </c>
       <c r="B300">
-        <v>55.74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.15">
@@ -2779,7 +2779,7 @@
         <v>43035</v>
       </c>
       <c r="B301">
-        <v>55.33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.15">
@@ -2787,7 +2787,7 @@
         <v>43036</v>
       </c>
       <c r="B302">
-        <v>54.69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.15">
@@ -2795,7 +2795,7 @@
         <v>43037</v>
       </c>
       <c r="B303">
-        <v>57.11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.15">
@@ -2803,7 +2803,7 @@
         <v>43038</v>
       </c>
       <c r="B304">
-        <v>56.39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.15">
@@ -2811,7 +2811,7 @@
         <v>43039</v>
       </c>
       <c r="B305">
-        <v>55.75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.15">
@@ -2819,7 +2819,7 @@
         <v>43040</v>
       </c>
       <c r="B306">
-        <v>53.18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.15">
@@ -2827,7 +2827,7 @@
         <v>43041</v>
       </c>
       <c r="B307">
-        <v>54.74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.15">
@@ -2835,7 +2835,7 @@
         <v>43042</v>
       </c>
       <c r="B308">
-        <v>56.18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.15">
@@ -2843,7 +2843,7 @@
         <v>43043</v>
       </c>
       <c r="B309">
-        <v>55.04</v>
+        <v>20</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.15">
@@ -2851,7 +2851,7 @@
         <v>43044</v>
       </c>
       <c r="B310">
-        <v>54.75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.15">
@@ -2859,7 +2859,7 @@
         <v>43045</v>
       </c>
       <c r="B311">
-        <v>55.17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.15">
@@ -2867,7 +2867,7 @@
         <v>43046</v>
       </c>
       <c r="B312">
-        <v>61.3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.15">
@@ -2875,7 +2875,7 @@
         <v>43047</v>
       </c>
       <c r="B313">
-        <v>62.57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.15">
@@ -2883,7 +2883,7 @@
         <v>43048</v>
       </c>
       <c r="B314">
-        <v>64.27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.15">
@@ -2891,7 +2891,7 @@
         <v>43049</v>
       </c>
       <c r="B315">
-        <v>59.26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.15">
@@ -2899,7 +2899,7 @@
         <v>43050</v>
       </c>
       <c r="B316">
-        <v>62.3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.15">
@@ -2907,7 +2907,7 @@
         <v>43051</v>
       </c>
       <c r="B317">
-        <v>59.01</v>
+        <v>20</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.15">
@@ -2915,7 +2915,7 @@
         <v>43052</v>
       </c>
       <c r="B318">
-        <v>61.4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.15">
@@ -2923,7 +2923,7 @@
         <v>43053</v>
       </c>
       <c r="B319">
-        <v>62.68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.15">
@@ -2931,7 +2931,7 @@
         <v>43054</v>
       </c>
       <c r="B320">
-        <v>63.82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.15">
@@ -2939,7 +2939,7 @@
         <v>43055</v>
       </c>
       <c r="B321">
-        <v>71.06</v>
+        <v>20</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.15">
@@ -2947,7 +2947,7 @@
         <v>43056</v>
       </c>
       <c r="B322">
-        <v>67.569999999999993</v>
+        <v>20</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.15">
@@ -2955,7 +2955,7 @@
         <v>43057</v>
       </c>
       <c r="B323">
-        <v>69.64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.15">
@@ -2963,7 +2963,7 @@
         <v>43058</v>
       </c>
       <c r="B324">
-        <v>71.59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.15">
@@ -2971,7 +2971,7 @@
         <v>43059</v>
       </c>
       <c r="B325">
-        <v>72.25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.15">
@@ -2979,7 +2979,7 @@
         <v>43060</v>
       </c>
       <c r="B326">
-        <v>70.03</v>
+        <v>20</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.15">
@@ -2987,7 +2987,7 @@
         <v>43061</v>
       </c>
       <c r="B327">
-        <v>71.89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.15">
@@ -2995,7 +2995,7 @@
         <v>43062</v>
       </c>
       <c r="B328">
-        <v>73.22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.15">
@@ -3003,7 +3003,7 @@
         <v>43063</v>
       </c>
       <c r="B329">
-        <v>77.97</v>
+        <v>20</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.15">
@@ -3011,7 +3011,7 @@
         <v>43064</v>
       </c>
       <c r="B330">
-        <v>88.82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.15">
@@ -3019,7 +3019,7 @@
         <v>43065</v>
       </c>
       <c r="B331">
-        <v>85.93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.15">
@@ -3027,7 +3027,7 @@
         <v>43066</v>
       </c>
       <c r="B332">
-        <v>91.6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.15">
@@ -3035,7 +3035,7 @@
         <v>43067</v>
       </c>
       <c r="B333">
-        <v>96.03</v>
+        <v>20</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.15">
@@ -3043,7 +3043,7 @@
         <v>43068</v>
       </c>
       <c r="B334">
-        <v>85.57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.15">
@@ -3051,7 +3051,7 @@
         <v>43069</v>
       </c>
       <c r="B335">
-        <v>88.33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.15">
@@ -3059,7 +3059,7 @@
         <v>43070</v>
       </c>
       <c r="B336">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.15">
@@ -3067,7 +3067,7 @@
         <v>43071</v>
       </c>
       <c r="B337">
-        <v>100.28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.15">
@@ -3075,7 +3075,7 @@
         <v>43072</v>
       </c>
       <c r="B338">
-        <v>101.26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.15">
@@ -3083,7 +3083,7 @@
         <v>43073</v>
       </c>
       <c r="B339">
-        <v>104.24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.15">
@@ -3091,7 +3091,7 @@
         <v>43074</v>
       </c>
       <c r="B340">
-        <v>102.4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.15">
@@ -3099,7 +3099,7 @@
         <v>43075</v>
       </c>
       <c r="B341">
-        <v>100.35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.15">
@@ -3107,7 +3107,7 @@
         <v>43076</v>
       </c>
       <c r="B342">
-        <v>98.29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.15">
@@ -3115,7 +3115,7 @@
         <v>43077</v>
       </c>
       <c r="B343">
-        <v>124.85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.15">
@@ -3123,7 +3123,7 @@
         <v>43078</v>
       </c>
       <c r="B344">
-        <v>155.24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.15">
@@ -3131,7 +3131,7 @@
         <v>43079</v>
       </c>
       <c r="B345">
-        <v>148.66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.15">
@@ -3139,7 +3139,7 @@
         <v>43080</v>
       </c>
       <c r="B346">
-        <v>214.2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.15">
@@ -3147,7 +3147,7 @@
         <v>43081</v>
       </c>
       <c r="B347">
-        <v>316.16000000000003</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/l-17.xlsx
+++ b/l-17.xlsx
@@ -365,8 +365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B286" sqref="B286"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -387,7 +387,7 @@
         <v>42736</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -395,7 +395,7 @@
         <v>42737</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>4.6500000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -403,7 +403,7 @@
         <v>42738</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -411,7 +411,7 @@
         <v>42739</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -419,7 +419,7 @@
         <v>42740</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -427,7 +427,7 @@
         <v>42741</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -435,7 +435,7 @@
         <v>42742</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -443,7 +443,7 @@
         <v>42743</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -451,7 +451,7 @@
         <v>42744</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -459,7 +459,7 @@
         <v>42745</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -467,7 +467,7 @@
         <v>42746</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -475,7 +475,7 @@
         <v>42747</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -483,7 +483,7 @@
         <v>42748</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -491,7 +491,7 @@
         <v>42749</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -499,7 +499,7 @@
         <v>42750</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -507,7 +507,7 @@
         <v>42751</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -515,7 +515,7 @@
         <v>42752</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -523,7 +523,7 @@
         <v>42753</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -531,7 +531,7 @@
         <v>42754</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -539,7 +539,7 @@
         <v>42755</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -547,7 +547,7 @@
         <v>42756</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -555,7 +555,7 @@
         <v>42757</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -563,7 +563,7 @@
         <v>42758</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -571,7 +571,7 @@
         <v>42759</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -579,7 +579,7 @@
         <v>42760</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -587,7 +587,7 @@
         <v>42761</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
@@ -595,7 +595,7 @@
         <v>42762</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
@@ -603,7 +603,7 @@
         <v>42763</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -611,7 +611,7 @@
         <v>42764</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
@@ -619,7 +619,7 @@
         <v>42765</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>4.0199999999999996</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
@@ -627,7 +627,7 @@
         <v>42766</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -635,7 +635,7 @@
         <v>42767</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
@@ -643,7 +643,7 @@
         <v>42768</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -651,7 +651,7 @@
         <v>42769</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
@@ -659,7 +659,7 @@
         <v>42770</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>4.0599999999999996</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -667,7 +667,7 @@
         <v>42771</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
@@ -675,7 +675,7 @@
         <v>42772</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -683,7 +683,7 @@
         <v>42773</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
@@ -691,7 +691,7 @@
         <v>42774</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>4.0199999999999996</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
@@ -699,7 +699,7 @@
         <v>42775</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
@@ -707,7 +707,7 @@
         <v>42776</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
@@ -715,7 +715,7 @@
         <v>42777</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
@@ -723,7 +723,7 @@
         <v>42778</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
@@ -731,7 +731,7 @@
         <v>42779</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
@@ -739,7 +739,7 @@
         <v>42780</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
@@ -747,7 +747,7 @@
         <v>42781</v>
       </c>
       <c r="B47">
-        <v>10</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
@@ -755,7 +755,7 @@
         <v>42782</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
@@ -763,7 +763,7 @@
         <v>42783</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
@@ -771,7 +771,7 @@
         <v>42784</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
@@ -779,7 +779,7 @@
         <v>42785</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
@@ -787,7 +787,7 @@
         <v>42786</v>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
@@ -795,7 +795,7 @@
         <v>42787</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
@@ -803,7 +803,7 @@
         <v>42788</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
@@ -811,7 +811,7 @@
         <v>42789</v>
       </c>
       <c r="B55">
-        <v>10</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
@@ -819,7 +819,7 @@
         <v>42790</v>
       </c>
       <c r="B56">
-        <v>10</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
@@ -827,7 +827,7 @@
         <v>42791</v>
       </c>
       <c r="B57">
-        <v>10</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
@@ -835,7 +835,7 @@
         <v>42792</v>
       </c>
       <c r="B58">
-        <v>10</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
@@ -843,7 +843,7 @@
         <v>42793</v>
       </c>
       <c r="B59">
-        <v>10</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
@@ -851,7 +851,7 @@
         <v>42794</v>
       </c>
       <c r="B60">
-        <v>10</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
@@ -859,7 +859,7 @@
         <v>42795</v>
       </c>
       <c r="B61">
-        <v>10</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
@@ -867,7 +867,7 @@
         <v>42796</v>
       </c>
       <c r="B62">
-        <v>10</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
@@ -875,7 +875,7 @@
         <v>42797</v>
       </c>
       <c r="B63">
-        <v>10</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
@@ -883,7 +883,7 @@
         <v>42798</v>
       </c>
       <c r="B64">
-        <v>10</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
@@ -891,7 +891,7 @@
         <v>42799</v>
       </c>
       <c r="B65">
-        <v>10</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
@@ -899,7 +899,7 @@
         <v>42800</v>
       </c>
       <c r="B66">
-        <v>10</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
@@ -907,7 +907,7 @@
         <v>42801</v>
       </c>
       <c r="B67">
-        <v>10</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
@@ -915,7 +915,7 @@
         <v>42802</v>
       </c>
       <c r="B68">
-        <v>10</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
@@ -923,7 +923,7 @@
         <v>42803</v>
       </c>
       <c r="B69">
-        <v>10</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
@@ -931,7 +931,7 @@
         <v>42804</v>
       </c>
       <c r="B70">
-        <v>10</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
@@ -939,7 +939,7 @@
         <v>42805</v>
       </c>
       <c r="B71">
-        <v>10</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
@@ -947,7 +947,7 @@
         <v>42806</v>
       </c>
       <c r="B72">
-        <v>10</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
@@ -955,7 +955,7 @@
         <v>42807</v>
       </c>
       <c r="B73">
-        <v>10</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
@@ -963,7 +963,7 @@
         <v>42808</v>
       </c>
       <c r="B74">
-        <v>10</v>
+        <v>4.0599999999999996</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
@@ -971,7 +971,7 @@
         <v>42809</v>
       </c>
       <c r="B75">
-        <v>10</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
@@ -979,7 +979,7 @@
         <v>42810</v>
       </c>
       <c r="B76">
-        <v>10</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
@@ -987,7 +987,7 @@
         <v>42811</v>
       </c>
       <c r="B77">
-        <v>10</v>
+        <v>4.0599999999999996</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
@@ -995,7 +995,7 @@
         <v>42812</v>
       </c>
       <c r="B78">
-        <v>10</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
@@ -1003,7 +1003,7 @@
         <v>42813</v>
       </c>
       <c r="B79">
-        <v>10</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
@@ -1011,7 +1011,7 @@
         <v>42814</v>
       </c>
       <c r="B80">
-        <v>10</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
@@ -1019,7 +1019,7 @@
         <v>42815</v>
       </c>
       <c r="B81">
-        <v>10</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
@@ -1027,7 +1027,7 @@
         <v>42816</v>
       </c>
       <c r="B82">
-        <v>10</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
@@ -1035,7 +1035,7 @@
         <v>42817</v>
       </c>
       <c r="B83">
-        <v>10</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
@@ -1043,7 +1043,7 @@
         <v>42818</v>
       </c>
       <c r="B84">
-        <v>10</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
@@ -1051,7 +1051,7 @@
         <v>42819</v>
       </c>
       <c r="B85">
-        <v>10</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
@@ -1059,7 +1059,7 @@
         <v>42820</v>
       </c>
       <c r="B86">
-        <v>10</v>
+        <v>4.0599999999999996</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
@@ -1067,7 +1067,7 @@
         <v>42821</v>
       </c>
       <c r="B87">
-        <v>10</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
@@ -1075,7 +1075,7 @@
         <v>42822</v>
       </c>
       <c r="B88">
-        <v>10</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
@@ -1083,7 +1083,7 @@
         <v>42823</v>
       </c>
       <c r="B89">
-        <v>10</v>
+        <v>4.1900000000000004</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
@@ -1091,7 +1091,7 @@
         <v>42824</v>
       </c>
       <c r="B90">
-        <v>10</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
@@ -1099,7 +1099,7 @@
         <v>42825</v>
       </c>
       <c r="B91">
-        <v>10</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
@@ -1107,7 +1107,7 @@
         <v>42826</v>
       </c>
       <c r="B92">
-        <v>10</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
@@ -1115,7 +1115,7 @@
         <v>42827</v>
       </c>
       <c r="B93">
-        <v>10</v>
+        <v>7.74</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
@@ -1123,7 +1123,7 @@
         <v>42828</v>
       </c>
       <c r="B94">
-        <v>10</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
@@ -1131,7 +1131,7 @@
         <v>42829</v>
       </c>
       <c r="B95">
-        <v>10</v>
+        <v>8.2899999999999991</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
@@ -1139,7 +1139,7 @@
         <v>42830</v>
       </c>
       <c r="B96">
-        <v>10</v>
+        <v>11.09</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
@@ -1147,7 +1147,7 @@
         <v>42831</v>
       </c>
       <c r="B97">
-        <v>10</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
@@ -1155,7 +1155,7 @@
         <v>42832</v>
       </c>
       <c r="B98">
-        <v>10</v>
+        <v>9.3699999999999992</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
@@ -1163,7 +1163,7 @@
         <v>42833</v>
       </c>
       <c r="B99">
-        <v>10</v>
+        <v>9.92</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
@@ -1171,7 +1171,7 @@
         <v>42834</v>
       </c>
       <c r="B100">
-        <v>10</v>
+        <v>8.7100000000000009</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
@@ -1179,7 +1179,7 @@
         <v>42835</v>
       </c>
       <c r="B101">
-        <v>10</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
@@ -1187,7 +1187,7 @@
         <v>42836</v>
       </c>
       <c r="B102">
-        <v>10</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
@@ -1195,7 +1195,7 @@
         <v>42837</v>
       </c>
       <c r="B103">
-        <v>10</v>
+        <v>10.79</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
@@ -1203,7 +1203,7 @@
         <v>42838</v>
       </c>
       <c r="B104">
-        <v>10</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
@@ -1211,7 +1211,7 @@
         <v>42839</v>
       </c>
       <c r="B105">
-        <v>10</v>
+        <v>10.39</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
@@ -1219,7 +1219,7 @@
         <v>42840</v>
       </c>
       <c r="B106">
-        <v>10</v>
+        <v>10.79</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
@@ -1227,7 +1227,7 @@
         <v>42841</v>
       </c>
       <c r="B107">
-        <v>10</v>
+        <v>10.71</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
@@ -1235,7 +1235,7 @@
         <v>42842</v>
       </c>
       <c r="B108">
-        <v>10</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
@@ -1243,7 +1243,7 @@
         <v>42843</v>
       </c>
       <c r="B109">
-        <v>10</v>
+        <v>10.32</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
@@ -1251,7 +1251,7 @@
         <v>42844</v>
       </c>
       <c r="B110">
-        <v>10</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
@@ -1259,7 +1259,7 @@
         <v>42845</v>
       </c>
       <c r="B111">
-        <v>10</v>
+        <v>10.33</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
@@ -1267,7 +1267,7 @@
         <v>42846</v>
       </c>
       <c r="B112">
-        <v>10</v>
+        <v>11.23</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
@@ -1275,7 +1275,7 @@
         <v>42847</v>
       </c>
       <c r="B113">
-        <v>10</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
@@ -1283,7 +1283,7 @@
         <v>42848</v>
       </c>
       <c r="B114">
-        <v>10</v>
+        <v>13.94</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
@@ -1291,7 +1291,7 @@
         <v>42849</v>
       </c>
       <c r="B115">
-        <v>10</v>
+        <v>14.97</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
@@ -1299,7 +1299,7 @@
         <v>42850</v>
       </c>
       <c r="B116">
-        <v>10</v>
+        <v>15.21</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
@@ -1307,7 +1307,7 @@
         <v>42851</v>
       </c>
       <c r="B117">
-        <v>10</v>
+        <v>14.85</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
@@ -1315,7 +1315,7 @@
         <v>42852</v>
       </c>
       <c r="B118">
-        <v>10</v>
+        <v>14.62</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
@@ -1323,7 +1323,7 @@
         <v>42853</v>
       </c>
       <c r="B119">
-        <v>10</v>
+        <v>14.34</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
@@ -1331,7 +1331,7 @@
         <v>42854</v>
       </c>
       <c r="B120">
-        <v>10</v>
+        <v>15.74</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
@@ -1339,7 +1339,7 @@
         <v>42855</v>
       </c>
       <c r="B121">
-        <v>10</v>
+        <v>15.71</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
@@ -1347,7 +1347,7 @@
         <v>42856</v>
       </c>
       <c r="B122">
-        <v>10</v>
+        <v>15.92</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
@@ -1355,7 +1355,7 @@
         <v>42857</v>
       </c>
       <c r="B123">
-        <v>10</v>
+        <v>15.89</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
@@ -1363,7 +1363,7 @@
         <v>42858</v>
       </c>
       <c r="B124">
-        <v>10</v>
+        <v>21.04</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
@@ -1371,7 +1371,7 @@
         <v>42859</v>
       </c>
       <c r="B125">
-        <v>10</v>
+        <v>23.39</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
@@ -1379,7 +1379,7 @@
         <v>42860</v>
       </c>
       <c r="B126">
-        <v>10</v>
+        <v>26.27</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
@@ -1387,7 +1387,7 @@
         <v>42861</v>
       </c>
       <c r="B127">
-        <v>10</v>
+        <v>28.16</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
@@ -1395,7 +1395,7 @@
         <v>42862</v>
       </c>
       <c r="B128">
-        <v>10</v>
+        <v>30.29</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
@@ -1403,7 +1403,7 @@
         <v>42863</v>
       </c>
       <c r="B129">
-        <v>10</v>
+        <v>28.96</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
@@ -1411,7 +1411,7 @@
         <v>42864</v>
       </c>
       <c r="B130">
-        <v>10</v>
+        <v>33.58</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
@@ -1419,7 +1419,7 @@
         <v>42865</v>
       </c>
       <c r="B131">
-        <v>10</v>
+        <v>31.96</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
@@ -1427,7 +1427,7 @@
         <v>42866</v>
       </c>
       <c r="B132">
-        <v>10</v>
+        <v>30.72</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
@@ -1435,7 +1435,7 @@
         <v>42867</v>
       </c>
       <c r="B133">
-        <v>10</v>
+        <v>27.45</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
@@ -1443,7 +1443,7 @@
         <v>42868</v>
       </c>
       <c r="B134">
-        <v>10</v>
+        <v>28.91</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
@@ -1451,7 +1451,7 @@
         <v>42869</v>
       </c>
       <c r="B135">
-        <v>10</v>
+        <v>28.89</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
@@ -1459,7 +1459,7 @@
         <v>42870</v>
       </c>
       <c r="B136">
-        <v>10</v>
+        <v>25.37</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
@@ -1467,7 +1467,7 @@
         <v>42871</v>
       </c>
       <c r="B137">
-        <v>10</v>
+        <v>23.33</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
@@ -1475,7 +1475,7 @@
         <v>42872</v>
       </c>
       <c r="B138">
-        <v>10</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
@@ -1483,7 +1483,7 @@
         <v>42873</v>
       </c>
       <c r="B139">
-        <v>10</v>
+        <v>28.36</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
@@ -1491,7 +1491,7 @@
         <v>42874</v>
       </c>
       <c r="B140">
-        <v>10</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
@@ -1499,7 +1499,7 @@
         <v>42875</v>
       </c>
       <c r="B141">
-        <v>10</v>
+        <v>27.51</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
@@ -1507,7 +1507,7 @@
         <v>42876</v>
       </c>
       <c r="B142">
-        <v>10</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
@@ -1515,7 +1515,7 @@
         <v>42877</v>
       </c>
       <c r="B143">
-        <v>10</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
@@ -1523,7 +1523,7 @@
         <v>42878</v>
       </c>
       <c r="B144">
-        <v>10</v>
+        <v>32.11</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
@@ -1531,7 +1531,7 @@
         <v>42879</v>
       </c>
       <c r="B145">
-        <v>10</v>
+        <v>34.450000000000003</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
@@ -1539,7 +1539,7 @@
         <v>42880</v>
       </c>
       <c r="B146">
-        <v>10</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
@@ -1547,7 +1547,7 @@
         <v>42881</v>
       </c>
       <c r="B147">
-        <v>10</v>
+        <v>23.75</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
@@ -1555,7 +1555,7 @@
         <v>42882</v>
       </c>
       <c r="B148">
-        <v>10</v>
+        <v>23.74</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
@@ -1563,7 +1563,7 @@
         <v>42883</v>
       </c>
       <c r="B149">
-        <v>10</v>
+        <v>24.22</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
@@ -1571,7 +1571,7 @@
         <v>42884</v>
       </c>
       <c r="B150">
-        <v>10</v>
+        <v>25.21</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
@@ -1579,7 +1579,7 @@
         <v>42885</v>
       </c>
       <c r="B151">
-        <v>10</v>
+        <v>24.14</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
@@ -1587,7 +1587,7 @@
         <v>42886</v>
       </c>
       <c r="B152">
-        <v>10</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.15">
@@ -1595,7 +1595,7 @@
         <v>42887</v>
       </c>
       <c r="B153">
-        <v>10</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.15">
@@ -1603,7 +1603,7 @@
         <v>42888</v>
       </c>
       <c r="B154">
-        <v>10</v>
+        <v>28.94</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.15">
@@ -1611,7 +1611,7 @@
         <v>42889</v>
       </c>
       <c r="B155">
-        <v>10</v>
+        <v>27.66</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.15">
@@ -1619,7 +1619,7 @@
         <v>42890</v>
       </c>
       <c r="B156">
-        <v>10</v>
+        <v>27.94</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.15">
@@ -1627,7 +1627,7 @@
         <v>42891</v>
       </c>
       <c r="B157">
-        <v>10</v>
+        <v>30.84</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
@@ -1635,7 +1635,7 @@
         <v>42892</v>
       </c>
       <c r="B158">
-        <v>10</v>
+        <v>30.55</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.15">
@@ -1643,7 +1643,7 @@
         <v>42893</v>
       </c>
       <c r="B159">
-        <v>10</v>
+        <v>28.39</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.15">
@@ -1651,7 +1651,7 @@
         <v>42894</v>
       </c>
       <c r="B160">
-        <v>10</v>
+        <v>30.21</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
@@ -1659,7 +1659,7 @@
         <v>42895</v>
       </c>
       <c r="B161">
-        <v>10</v>
+        <v>29.68</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.15">
@@ -1667,7 +1667,7 @@
         <v>42896</v>
       </c>
       <c r="B162">
-        <v>10</v>
+        <v>30.44</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.15">
@@ -1675,7 +1675,7 @@
         <v>42897</v>
       </c>
       <c r="B163">
-        <v>10</v>
+        <v>33.22</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.15">
@@ -1683,7 +1683,7 @@
         <v>42898</v>
       </c>
       <c r="B164">
-        <v>10</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.15">
@@ -1691,7 +1691,7 @@
         <v>42899</v>
       </c>
       <c r="B165">
-        <v>10</v>
+        <v>30.64</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.15">
@@ -1699,7 +1699,7 @@
         <v>42900</v>
       </c>
       <c r="B166">
-        <v>10</v>
+        <v>30.22</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.15">
@@ -1707,7 +1707,7 @@
         <v>42901</v>
       </c>
       <c r="B167">
-        <v>10</v>
+        <v>30.22</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.15">
@@ -1715,7 +1715,7 @@
         <v>42902</v>
       </c>
       <c r="B168">
-        <v>10</v>
+        <v>35.700000000000003</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.15">
@@ -1723,7 +1723,7 @@
         <v>42903</v>
       </c>
       <c r="B169">
-        <v>10</v>
+        <v>47.65</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.15">
@@ -1731,7 +1731,7 @@
         <v>42904</v>
       </c>
       <c r="B170">
-        <v>10</v>
+        <v>46.04</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.15">
@@ -1739,7 +1739,7 @@
         <v>42905</v>
       </c>
       <c r="B171">
-        <v>10</v>
+        <v>50.32</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.15">
@@ -1747,7 +1747,7 @@
         <v>42906</v>
       </c>
       <c r="B172">
-        <v>10</v>
+        <v>47.22</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.15">
@@ -1755,7 +1755,7 @@
         <v>42907</v>
       </c>
       <c r="B173">
-        <v>10</v>
+        <v>47.79</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.15">
@@ -1763,7 +1763,7 @@
         <v>42908</v>
       </c>
       <c r="B174">
-        <v>10</v>
+        <v>47.71</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.15">
@@ -1771,7 +1771,7 @@
         <v>42909</v>
       </c>
       <c r="B175">
-        <v>10</v>
+        <v>47.34</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.15">
@@ -1779,7 +1779,7 @@
         <v>42910</v>
       </c>
       <c r="B176">
-        <v>10</v>
+        <v>44.49</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.15">
@@ -1787,7 +1787,7 @@
         <v>42911</v>
       </c>
       <c r="B177">
-        <v>10</v>
+        <v>43.92</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.15">
@@ -1795,7 +1795,7 @@
         <v>42912</v>
       </c>
       <c r="B178">
-        <v>10</v>
+        <v>41.13</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.15">
@@ -1803,7 +1803,7 @@
         <v>42913</v>
       </c>
       <c r="B179">
-        <v>10</v>
+        <v>40.54</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.15">
@@ -1811,7 +1811,7 @@
         <v>42914</v>
       </c>
       <c r="B180">
-        <v>10</v>
+        <v>42.85</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.15">
@@ -1819,7 +1819,7 @@
         <v>42915</v>
       </c>
       <c r="B181">
-        <v>10</v>
+        <v>41.07</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.15">
@@ -1827,7 +1827,7 @@
         <v>42916</v>
       </c>
       <c r="B182">
-        <v>10</v>
+        <v>40.35</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.15">
@@ -1835,7 +1835,7 @@
         <v>42917</v>
       </c>
       <c r="B183">
-        <v>10</v>
+        <v>38.99</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.15">
@@ -1843,7 +1843,7 @@
         <v>42918</v>
       </c>
       <c r="B184">
-        <v>10</v>
+        <v>41.57</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.15">
@@ -1851,7 +1851,7 @@
         <v>42919</v>
       </c>
       <c r="B185">
-        <v>10</v>
+        <v>46.43</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.15">
@@ -1859,7 +1859,7 @@
         <v>42920</v>
       </c>
       <c r="B186">
-        <v>10</v>
+        <v>55.33</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.15">
@@ -1867,7 +1867,7 @@
         <v>42921</v>
       </c>
       <c r="B187">
-        <v>10</v>
+        <v>53.19</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.15">
@@ -1875,7 +1875,7 @@
         <v>42922</v>
       </c>
       <c r="B188">
-        <v>10</v>
+        <v>51.13</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.15">
@@ -1883,7 +1883,7 @@
         <v>42923</v>
       </c>
       <c r="B189">
-        <v>10</v>
+        <v>46.58</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.15">
@@ -1891,7 +1891,7 @@
         <v>42924</v>
       </c>
       <c r="B190">
-        <v>10</v>
+        <v>52.14</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.15">
@@ -1899,7 +1899,7 @@
         <v>42925</v>
       </c>
       <c r="B191">
-        <v>10</v>
+        <v>49.58</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.15">
@@ -1907,7 +1907,7 @@
         <v>42926</v>
       </c>
       <c r="B192">
-        <v>10</v>
+        <v>46.58</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.15">
@@ -1915,7 +1915,7 @@
         <v>42927</v>
       </c>
       <c r="B193">
-        <v>10</v>
+        <v>45.33</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.15">
@@ -1923,7 +1923,7 @@
         <v>42928</v>
       </c>
       <c r="B194">
-        <v>10</v>
+        <v>48.75</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.15">
@@ -1931,7 +1931,7 @@
         <v>42929</v>
       </c>
       <c r="B195">
-        <v>10</v>
+        <v>46.33</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.15">
@@ -1939,7 +1939,7 @@
         <v>42930</v>
       </c>
       <c r="B196">
-        <v>10</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.15">
@@ -1947,7 +1947,7 @@
         <v>42931</v>
       </c>
       <c r="B197">
-        <v>10</v>
+        <v>38.92</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.15">
@@ -1955,7 +1955,7 @@
         <v>42932</v>
       </c>
       <c r="B198">
-        <v>10</v>
+        <v>40.909999999999997</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.15">
@@ -1963,7 +1963,7 @@
         <v>42933</v>
       </c>
       <c r="B199">
-        <v>10</v>
+        <v>42.67</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.15">
@@ -1971,7 +1971,7 @@
         <v>42934</v>
       </c>
       <c r="B200">
-        <v>10</v>
+        <v>44.3</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.15">
@@ -1979,7 +1979,7 @@
         <v>42935</v>
       </c>
       <c r="B201">
-        <v>10</v>
+        <v>40.86</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.15">
@@ -1987,7 +1987,7 @@
         <v>42936</v>
       </c>
       <c r="B202">
-        <v>10</v>
+        <v>45.02</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.15">
@@ -1995,7 +1995,7 @@
         <v>42937</v>
       </c>
       <c r="B203">
-        <v>10</v>
+        <v>45.76</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.15">
@@ -2003,7 +2003,7 @@
         <v>42938</v>
       </c>
       <c r="B204">
-        <v>10</v>
+        <v>46.56</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.15">
@@ -2011,7 +2011,7 @@
         <v>42939</v>
       </c>
       <c r="B205">
-        <v>10</v>
+        <v>44.06</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.15">
@@ -2019,7 +2019,7 @@
         <v>42940</v>
       </c>
       <c r="B206">
-        <v>10</v>
+        <v>44.41</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.15">
@@ -2027,7 +2027,7 @@
         <v>42941</v>
       </c>
       <c r="B207">
-        <v>10</v>
+        <v>42.24</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.15">
@@ -2035,7 +2035,7 @@
         <v>42942</v>
       </c>
       <c r="B208">
-        <v>10</v>
+        <v>42.23</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.15">
@@ -2043,7 +2043,7 @@
         <v>42943</v>
       </c>
       <c r="B209">
-        <v>10</v>
+        <v>42.14</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.15">
@@ -2051,7 +2051,7 @@
         <v>42944</v>
       </c>
       <c r="B210">
-        <v>10</v>
+        <v>40.61</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.15">
@@ -2059,7 +2059,7 @@
         <v>42945</v>
       </c>
       <c r="B211">
-        <v>10</v>
+        <v>41.12</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.15">
@@ -2067,7 +2067,7 @@
         <v>42946</v>
       </c>
       <c r="B212">
-        <v>10</v>
+        <v>40.42</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.15">
@@ -2075,7 +2075,7 @@
         <v>42947</v>
       </c>
       <c r="B213">
-        <v>10</v>
+        <v>43.02</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.15">
@@ -2083,7 +2083,7 @@
         <v>42948</v>
       </c>
       <c r="B214">
-        <v>10</v>
+        <v>43.04</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.15">
@@ -2091,7 +2091,7 @@
         <v>42949</v>
       </c>
       <c r="B215">
-        <v>10</v>
+        <v>42.13</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.15">
@@ -2099,7 +2099,7 @@
         <v>42950</v>
       </c>
       <c r="B216">
-        <v>10</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.15">
@@ -2107,7 +2107,7 @@
         <v>42951</v>
       </c>
       <c r="B217">
-        <v>10</v>
+        <v>43.45</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.15">
@@ -2115,7 +2115,7 @@
         <v>42952</v>
       </c>
       <c r="B218">
-        <v>10</v>
+        <v>46.86</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.15">
@@ -2123,7 +2123,7 @@
         <v>42953</v>
       </c>
       <c r="B219">
-        <v>10</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.15">
@@ -2131,7 +2131,7 @@
         <v>42954</v>
       </c>
       <c r="B220">
-        <v>10</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.15">
@@ -2139,7 +2139,7 @@
         <v>42955</v>
       </c>
       <c r="B221">
-        <v>10</v>
+        <v>48.63</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.15">
@@ -2147,7 +2147,7 @@
         <v>42956</v>
       </c>
       <c r="B222">
-        <v>10</v>
+        <v>48.01</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.15">
@@ -2155,7 +2155,7 @@
         <v>42957</v>
       </c>
       <c r="B223">
-        <v>10</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.15">
@@ -2163,7 +2163,7 @@
         <v>42958</v>
       </c>
       <c r="B224">
-        <v>10</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.15">
@@ -2171,7 +2171,7 @@
         <v>42959</v>
       </c>
       <c r="B225">
-        <v>10</v>
+        <v>46.43</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.15">
@@ -2179,7 +2179,7 @@
         <v>42960</v>
       </c>
       <c r="B226">
-        <v>10</v>
+        <v>45.81</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.15">
@@ -2187,7 +2187,7 @@
         <v>42961</v>
       </c>
       <c r="B227">
-        <v>10</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.15">
@@ -2195,7 +2195,7 @@
         <v>42962</v>
       </c>
       <c r="B228">
-        <v>10</v>
+        <v>43.31</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.15">
@@ -2203,7 +2203,7 @@
         <v>42963</v>
       </c>
       <c r="B229">
-        <v>10</v>
+        <v>44.15</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.15">
@@ -2211,7 +2211,7 @@
         <v>42964</v>
       </c>
       <c r="B230">
-        <v>10</v>
+        <v>43.91</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.15">
@@ -2219,7 +2219,7 @@
         <v>42965</v>
       </c>
       <c r="B231">
-        <v>10</v>
+        <v>47.28</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.15">
@@ -2227,7 +2227,7 @@
         <v>42966</v>
       </c>
       <c r="B232">
-        <v>10</v>
+        <v>45.48</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.15">
@@ -2235,7 +2235,7 @@
         <v>42967</v>
       </c>
       <c r="B233">
-        <v>10</v>
+        <v>46.23</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.15">
@@ -2243,7 +2243,7 @@
         <v>42968</v>
       </c>
       <c r="B234">
-        <v>10</v>
+        <v>47.94</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.15">
@@ -2251,7 +2251,7 @@
         <v>42969</v>
       </c>
       <c r="B235">
-        <v>10</v>
+        <v>46.73</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.15">
@@ -2259,7 +2259,7 @@
         <v>42970</v>
       </c>
       <c r="B236">
-        <v>10</v>
+        <v>53.25</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.15">
@@ -2267,7 +2267,7 @@
         <v>42971</v>
       </c>
       <c r="B237">
-        <v>10</v>
+        <v>50.19</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.15">
@@ -2275,7 +2275,7 @@
         <v>42972</v>
       </c>
       <c r="B238">
-        <v>10</v>
+        <v>51.18</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.15">
@@ -2283,7 +2283,7 @@
         <v>42973</v>
       </c>
       <c r="B239">
-        <v>10</v>
+        <v>51.75</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.15">
@@ -2291,7 +2291,7 @@
         <v>42974</v>
       </c>
       <c r="B240">
-        <v>10</v>
+        <v>61.16</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.15">
@@ -2299,7 +2299,7 @@
         <v>42975</v>
       </c>
       <c r="B241">
-        <v>10</v>
+        <v>62.36</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.15">
@@ -2307,7 +2307,7 @@
         <v>42976</v>
       </c>
       <c r="B242">
-        <v>10</v>
+        <v>63.17</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.15">
@@ -2315,7 +2315,7 @@
         <v>42977</v>
       </c>
       <c r="B243">
-        <v>10</v>
+        <v>64.17</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.15">
@@ -2323,7 +2323,7 @@
         <v>42978</v>
       </c>
       <c r="B244">
-        <v>10</v>
+        <v>71.06</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.15">
@@ -2331,7 +2331,7 @@
         <v>42979</v>
       </c>
       <c r="B245">
-        <v>10</v>
+        <v>86.04</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.15">
@@ -2339,7 +2339,7 @@
         <v>42980</v>
       </c>
       <c r="B246">
-        <v>10</v>
+        <v>79.02</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.15">
@@ -2347,7 +2347,7 @@
         <v>42981</v>
       </c>
       <c r="B247">
-        <v>10</v>
+        <v>76.84</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.15">
@@ -2355,7 +2355,7 @@
         <v>42982</v>
       </c>
       <c r="B248">
-        <v>10</v>
+        <v>65.209999999999994</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.15">
@@ -2363,7 +2363,7 @@
         <v>42983</v>
       </c>
       <c r="B249">
-        <v>10</v>
+        <v>71.290000000000006</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.15">
@@ -2371,7 +2371,7 @@
         <v>42984</v>
       </c>
       <c r="B250">
-        <v>10</v>
+        <v>80.11</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.15">
@@ -2379,7 +2379,7 @@
         <v>42985</v>
       </c>
       <c r="B251">
-        <v>10</v>
+        <v>78.48</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.15">
@@ -2387,7 +2387,7 @@
         <v>42986</v>
       </c>
       <c r="B252">
-        <v>10</v>
+        <v>67.790000000000006</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.15">
@@ -2395,7 +2395,7 @@
         <v>42987</v>
       </c>
       <c r="B253">
-        <v>10</v>
+        <v>66.010000000000005</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.15">
@@ -2403,7 +2403,7 @@
         <v>42988</v>
       </c>
       <c r="B254">
-        <v>10</v>
+        <v>61.61</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.15">
@@ -2411,7 +2411,7 @@
         <v>42989</v>
       </c>
       <c r="B255">
-        <v>10</v>
+        <v>66.040000000000006</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.15">
@@ -2419,7 +2419,7 @@
         <v>42990</v>
       </c>
       <c r="B256">
-        <v>10</v>
+        <v>64.23</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.15">
@@ -2427,7 +2427,7 @@
         <v>42991</v>
       </c>
       <c r="B257">
-        <v>10</v>
+        <v>61.73</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.15">
@@ -2435,7 +2435,7 @@
         <v>42992</v>
       </c>
       <c r="B258">
-        <v>10</v>
+        <v>41.58</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.15">
@@ -2443,7 +2443,7 @@
         <v>42993</v>
       </c>
       <c r="B259">
-        <v>10</v>
+        <v>48.21</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.15">
@@ -2451,7 +2451,7 @@
         <v>42994</v>
       </c>
       <c r="B260">
-        <v>10</v>
+        <v>48.26</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.15">
@@ -2459,7 +2459,7 @@
         <v>42995</v>
       </c>
       <c r="B261">
-        <v>10</v>
+        <v>48.49</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.15">
@@ -2467,7 +2467,7 @@
         <v>42996</v>
       </c>
       <c r="B262">
-        <v>10</v>
+        <v>55.53</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.15">
@@ -2475,7 +2475,7 @@
         <v>42997</v>
       </c>
       <c r="B263">
-        <v>10</v>
+        <v>52.84</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.15">
@@ -2483,7 +2483,7 @@
         <v>42998</v>
       </c>
       <c r="B264">
-        <v>10</v>
+        <v>51.73</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.15">
@@ -2491,7 +2491,7 @@
         <v>42999</v>
       </c>
       <c r="B265">
-        <v>10</v>
+        <v>46.61</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.15">
@@ -2499,7 +2499,7 @@
         <v>43000</v>
       </c>
       <c r="B266">
-        <v>10</v>
+        <v>48.09</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.15">
@@ -2507,7 +2507,7 @@
         <v>43001</v>
       </c>
       <c r="B267">
-        <v>10</v>
+        <v>49.27</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.15">
@@ -2515,7 +2515,7 @@
         <v>43002</v>
       </c>
       <c r="B268">
-        <v>10</v>
+        <v>47.62</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.15">
@@ -2523,7 +2523,7 @@
         <v>43003</v>
       </c>
       <c r="B269">
-        <v>10</v>
+        <v>51.58</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.15">
@@ -2531,7 +2531,7 @@
         <v>43004</v>
       </c>
       <c r="B270">
-        <v>10</v>
+        <v>51.55</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.15">
@@ -2539,7 +2539,7 @@
         <v>43005</v>
       </c>
       <c r="B271">
-        <v>10</v>
+        <v>56.28</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.15">
@@ -2547,7 +2547,7 @@
         <v>43006</v>
       </c>
       <c r="B272">
-        <v>10</v>
+        <v>54.09</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.15">
@@ -2555,7 +2555,7 @@
         <v>43007</v>
       </c>
       <c r="B273">
-        <v>10</v>
+        <v>52.62</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.15">
@@ -2563,7 +2563,7 @@
         <v>43008</v>
       </c>
       <c r="B274">
-        <v>10</v>
+        <v>55.14</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.15">
@@ -2571,7 +2571,7 @@
         <v>43009</v>
       </c>
       <c r="B275">
-        <v>10</v>
+        <v>54.54</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.15">
@@ -2579,7 +2579,7 @@
         <v>43010</v>
       </c>
       <c r="B276">
-        <v>10</v>
+        <v>53.38</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.15">
@@ -2587,7 +2587,7 @@
         <v>43011</v>
       </c>
       <c r="B277">
-        <v>10</v>
+        <v>52.35</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.15">
@@ -2595,7 +2595,7 @@
         <v>43012</v>
       </c>
       <c r="B278">
-        <v>10</v>
+        <v>51.4</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.15">
@@ -2603,7 +2603,7 @@
         <v>43013</v>
       </c>
       <c r="B279">
-        <v>10</v>
+        <v>51.67</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.15">
@@ -2611,7 +2611,7 @@
         <v>43014</v>
       </c>
       <c r="B280">
-        <v>10</v>
+        <v>52.12</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.15">
@@ -2619,7 +2619,7 @@
         <v>43015</v>
       </c>
       <c r="B281">
-        <v>10</v>
+        <v>52.58</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.15">
@@ -2627,7 +2627,7 @@
         <v>43016</v>
       </c>
       <c r="B282">
-        <v>10</v>
+        <v>53.14</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.15">
@@ -2635,7 +2635,7 @@
         <v>43017</v>
       </c>
       <c r="B283">
-        <v>10</v>
+        <v>50.16</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.15">
@@ -2643,7 +2643,7 @@
         <v>43018</v>
       </c>
       <c r="B284">
-        <v>10</v>
+        <v>50.72</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.15">
@@ -2651,7 +2651,7 @@
         <v>43019</v>
       </c>
       <c r="B285">
-        <v>10</v>
+        <v>50.89</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.15">
@@ -2659,7 +2659,7 @@
         <v>43020</v>
       </c>
       <c r="B286">
-        <v>20</v>
+        <v>60.11</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.15">
@@ -2667,7 +2667,7 @@
         <v>43021</v>
       </c>
       <c r="B287">
-        <v>20</v>
+        <v>59.43</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.15">
@@ -2675,7 +2675,7 @@
         <v>43022</v>
       </c>
       <c r="B288">
-        <v>20</v>
+        <v>63.95</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.15">
@@ -2683,7 +2683,7 @@
         <v>43023</v>
       </c>
       <c r="B289">
-        <v>20</v>
+        <v>65.47</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.15">
@@ -2691,7 +2691,7 @@
         <v>43024</v>
       </c>
       <c r="B290">
-        <v>20</v>
+        <v>64.62</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.15">
@@ -2699,7 +2699,7 @@
         <v>43025</v>
       </c>
       <c r="B291">
-        <v>20</v>
+        <v>59.48</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.15">
@@ -2707,7 +2707,7 @@
         <v>43026</v>
       </c>
       <c r="B292">
-        <v>20</v>
+        <v>60.73</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.15">
@@ -2715,7 +2715,7 @@
         <v>43027</v>
       </c>
       <c r="B293">
-        <v>20</v>
+        <v>59.74</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.15">
@@ -2723,7 +2723,7 @@
         <v>43028</v>
       </c>
       <c r="B294">
-        <v>20</v>
+        <v>60.33</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.15">
@@ -2731,7 +2731,7 @@
         <v>43029</v>
       </c>
       <c r="B295">
-        <v>20</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.15">
@@ -2739,7 +2739,7 @@
         <v>43030</v>
       </c>
       <c r="B296">
-        <v>20</v>
+        <v>56.81</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.15">
@@ -2747,7 +2747,7 @@
         <v>43031</v>
       </c>
       <c r="B297">
-        <v>20</v>
+        <v>54.92</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.15">
@@ -2755,7 +2755,7 @@
         <v>43032</v>
       </c>
       <c r="B298">
-        <v>20</v>
+        <v>55.96</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.15">
@@ -2763,7 +2763,7 @@
         <v>43033</v>
       </c>
       <c r="B299">
-        <v>20</v>
+        <v>56.49</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.15">
@@ -2771,7 +2771,7 @@
         <v>43034</v>
       </c>
       <c r="B300">
-        <v>20</v>
+        <v>55.74</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.15">
@@ -2779,7 +2779,7 @@
         <v>43035</v>
       </c>
       <c r="B301">
-        <v>20</v>
+        <v>55.33</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.15">
@@ -2787,7 +2787,7 @@
         <v>43036</v>
       </c>
       <c r="B302">
-        <v>20</v>
+        <v>54.69</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.15">
@@ -2795,7 +2795,7 @@
         <v>43037</v>
       </c>
       <c r="B303">
-        <v>20</v>
+        <v>57.11</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.15">
@@ -2803,7 +2803,7 @@
         <v>43038</v>
       </c>
       <c r="B304">
-        <v>20</v>
+        <v>56.39</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.15">
@@ -2811,7 +2811,7 @@
         <v>43039</v>
       </c>
       <c r="B305">
-        <v>20</v>
+        <v>55.75</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.15">
@@ -2819,7 +2819,7 @@
         <v>43040</v>
       </c>
       <c r="B306">
-        <v>20</v>
+        <v>53.18</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.15">
@@ -2827,7 +2827,7 @@
         <v>43041</v>
       </c>
       <c r="B307">
-        <v>20</v>
+        <v>54.74</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.15">
@@ -2835,7 +2835,7 @@
         <v>43042</v>
       </c>
       <c r="B308">
-        <v>20</v>
+        <v>56.18</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.15">
@@ -2843,7 +2843,7 @@
         <v>43043</v>
       </c>
       <c r="B309">
-        <v>20</v>
+        <v>55.04</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.15">
@@ -2851,7 +2851,7 @@
         <v>43044</v>
       </c>
       <c r="B310">
-        <v>20</v>
+        <v>54.75</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.15">
@@ -2859,7 +2859,7 @@
         <v>43045</v>
       </c>
       <c r="B311">
-        <v>20</v>
+        <v>55.17</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.15">
@@ -2867,7 +2867,7 @@
         <v>43046</v>
       </c>
       <c r="B312">
-        <v>20</v>
+        <v>61.3</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.15">
@@ -2875,7 +2875,7 @@
         <v>43047</v>
       </c>
       <c r="B313">
-        <v>20</v>
+        <v>62.57</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.15">
@@ -2883,7 +2883,7 @@
         <v>43048</v>
       </c>
       <c r="B314">
-        <v>20</v>
+        <v>64.27</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.15">
@@ -2891,7 +2891,7 @@
         <v>43049</v>
       </c>
       <c r="B315">
-        <v>20</v>
+        <v>59.26</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.15">
@@ -2899,7 +2899,7 @@
         <v>43050</v>
       </c>
       <c r="B316">
-        <v>20</v>
+        <v>62.3</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.15">
@@ -2907,7 +2907,7 @@
         <v>43051</v>
       </c>
       <c r="B317">
-        <v>20</v>
+        <v>59.01</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.15">
@@ -2915,7 +2915,7 @@
         <v>43052</v>
       </c>
       <c r="B318">
-        <v>20</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.15">
@@ -2923,7 +2923,7 @@
         <v>43053</v>
       </c>
       <c r="B319">
-        <v>20</v>
+        <v>62.68</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.15">
@@ -2931,7 +2931,7 @@
         <v>43054</v>
       </c>
       <c r="B320">
-        <v>20</v>
+        <v>63.82</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.15">
@@ -2939,7 +2939,7 @@
         <v>43055</v>
       </c>
       <c r="B321">
-        <v>20</v>
+        <v>71.06</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.15">
@@ -2947,7 +2947,7 @@
         <v>43056</v>
       </c>
       <c r="B322">
-        <v>20</v>
+        <v>67.569999999999993</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.15">
@@ -2955,7 +2955,7 @@
         <v>43057</v>
       </c>
       <c r="B323">
-        <v>20</v>
+        <v>69.64</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.15">
@@ -2963,7 +2963,7 @@
         <v>43058</v>
       </c>
       <c r="B324">
-        <v>20</v>
+        <v>71.59</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.15">
@@ -2971,7 +2971,7 @@
         <v>43059</v>
       </c>
       <c r="B325">
-        <v>20</v>
+        <v>72.25</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.15">
@@ -2979,7 +2979,7 @@
         <v>43060</v>
       </c>
       <c r="B326">
-        <v>20</v>
+        <v>70.03</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.15">
@@ -2987,7 +2987,7 @@
         <v>43061</v>
       </c>
       <c r="B327">
-        <v>20</v>
+        <v>71.89</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.15">
@@ -2995,7 +2995,7 @@
         <v>43062</v>
       </c>
       <c r="B328">
-        <v>20</v>
+        <v>73.22</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.15">
@@ -3003,7 +3003,7 @@
         <v>43063</v>
       </c>
       <c r="B329">
-        <v>20</v>
+        <v>77.97</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.15">
@@ -3011,7 +3011,7 @@
         <v>43064</v>
       </c>
       <c r="B330">
-        <v>20</v>
+        <v>88.82</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.15">
@@ -3019,7 +3019,7 @@
         <v>43065</v>
       </c>
       <c r="B331">
-        <v>20</v>
+        <v>85.93</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.15">
@@ -3027,7 +3027,7 @@
         <v>43066</v>
       </c>
       <c r="B332">
-        <v>20</v>
+        <v>91.6</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.15">
@@ -3035,7 +3035,7 @@
         <v>43067</v>
       </c>
       <c r="B333">
-        <v>20</v>
+        <v>96.03</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.15">
@@ -3043,7 +3043,7 @@
         <v>43068</v>
       </c>
       <c r="B334">
-        <v>20</v>
+        <v>85.57</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.15">
@@ -3051,7 +3051,7 @@
         <v>43069</v>
       </c>
       <c r="B335">
-        <v>20</v>
+        <v>88.33</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.15">
@@ -3059,7 +3059,7 @@
         <v>43070</v>
       </c>
       <c r="B336">
-        <v>20</v>
+        <v>99</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.15">
@@ -3067,7 +3067,7 @@
         <v>43071</v>
       </c>
       <c r="B337">
-        <v>20</v>
+        <v>100.28</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.15">
@@ -3075,7 +3075,7 @@
         <v>43072</v>
       </c>
       <c r="B338">
-        <v>20</v>
+        <v>101.26</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.15">
@@ -3083,7 +3083,7 @@
         <v>43073</v>
       </c>
       <c r="B339">
-        <v>20</v>
+        <v>104.24</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.15">
@@ -3091,7 +3091,7 @@
         <v>43074</v>
       </c>
       <c r="B340">
-        <v>20</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.15">
@@ -3099,7 +3099,7 @@
         <v>43075</v>
       </c>
       <c r="B341">
-        <v>20</v>
+        <v>100.35</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.15">
@@ -3107,7 +3107,7 @@
         <v>43076</v>
       </c>
       <c r="B342">
-        <v>20</v>
+        <v>98.29</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.15">
@@ -3115,7 +3115,7 @@
         <v>43077</v>
       </c>
       <c r="B343">
-        <v>20</v>
+        <v>124.85</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.15">
@@ -3123,7 +3123,7 @@
         <v>43078</v>
       </c>
       <c r="B344">
-        <v>20</v>
+        <v>155.24</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.15">
@@ -3131,7 +3131,7 @@
         <v>43079</v>
       </c>
       <c r="B345">
-        <v>20</v>
+        <v>148.66</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.15">
@@ -3139,7 +3139,7 @@
         <v>43080</v>
       </c>
       <c r="B346">
-        <v>20</v>
+        <v>214.2</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.15">
@@ -3147,7 +3147,7 @@
         <v>43081</v>
       </c>
       <c r="B347">
-        <v>20</v>
+        <v>316.16000000000003</v>
       </c>
     </row>
   </sheetData>
